--- a/prathvi/output_pics/RESULT_list.xlsx
+++ b/prathvi/output_pics/RESULT_list.xlsx
@@ -257,11 +257,14 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -272,11 +275,8 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -300,129 +300,14 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>1485900</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>176212</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="1229824" cy="172227"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="5" name="TextBox 4"/>
-            <xdr:cNvSpPr txBox="1"/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="5943600" y="6367462"/>
-              <a:ext cx="1229824" cy="172227"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:lnRef>
-            <a:fillRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="tx1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a14:m>
-                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
-                  <m:oMathParaPr>
-                    <m:jc m:val="centerGroup"/>
-                  </m:oMathParaPr>
-                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
-                    <a:fld id="{93C22FEC-1147-4C15-A12F-AB9BECE1F86A}" type="mathplaceholder">
-                      <a:rPr lang="en-IN" sz="1100" i="1">
-                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                      </a:rPr>
-                      <a:t>Type equation here.</a:t>
-                    </a:fld>
-                  </m:oMath>
-                </m:oMathPara>
-              </a14:m>
-              <a:endParaRPr lang="en-IN" sz="1100"/>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-      </mc:Choice>
-      <mc:Fallback>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="5" name="TextBox 4"/>
-            <xdr:cNvSpPr txBox="1"/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="5943600" y="6367462"/>
-              <a:ext cx="1229824" cy="172227"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:lnRef>
-            <a:fillRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="tx1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:r>
-                <a:rPr lang="en-IN" sz="1100" i="0">
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                </a:rPr>
-                <a:t>"Type equation here."</a:t>
-              </a:r>
-              <a:endParaRPr lang="en-IN" sz="1100"/>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>600075</xdr:colOff>
       <xdr:row>41</xdr:row>
       <xdr:rowOff>33337</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="860299" cy="175369"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="6" name="TextBox 5"/>
@@ -458,6 +343,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -545,7 +431,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="6" name="TextBox 5"/>
@@ -888,7 +774,7 @@
   <dimension ref="A1:P44"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="C37" sqref="C37"/>
+      <selection activeCell="B30" sqref="B30:B44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -906,12 +792,12 @@
     <row r="1" spans="2:7" hidden="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:7" hidden="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="2:7" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
     </row>
     <row r="4" spans="2:7" hidden="1" x14ac:dyDescent="0.25"/>
     <row r="5" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
@@ -934,14 +820,14 @@
     <row r="6" spans="2:7" hidden="1" x14ac:dyDescent="0.25"/>
     <row r="7" spans="2:7" hidden="1" x14ac:dyDescent="0.25"/>
     <row r="8" spans="2:7" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
     </row>
     <row r="9" spans="2:7" hidden="1" x14ac:dyDescent="0.25"/>
     <row r="10" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
@@ -998,12 +884,12 @@
     <row r="13" spans="2:7" hidden="1" x14ac:dyDescent="0.25"/>
     <row r="14" spans="2:7" hidden="1" x14ac:dyDescent="0.25"/>
     <row r="15" spans="2:7" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="C15" s="3" t="s">
+      <c r="C15" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
     </row>
     <row r="16" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B16" s="1">
@@ -1178,54 +1064,54 @@
     <row r="26" spans="1:16" hidden="1" x14ac:dyDescent="0.25"/>
     <row r="27" spans="1:16" hidden="1" x14ac:dyDescent="0.25"/>
     <row r="28" spans="1:16" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A28" s="5" t="s">
+      <c r="A28" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="B28" s="5"/>
-      <c r="C28" s="5"/>
-      <c r="D28" s="5"/>
-      <c r="E28" s="5"/>
-      <c r="F28" s="5"/>
-      <c r="G28" s="9"/>
-      <c r="H28" s="9"/>
-      <c r="I28" s="9"/>
-      <c r="J28" s="9"/>
-      <c r="K28" s="9"/>
-      <c r="L28" s="9"/>
-      <c r="M28" s="9"/>
-      <c r="N28" s="9"/>
-      <c r="O28" s="9"/>
-      <c r="P28" s="9"/>
+      <c r="B28" s="6"/>
+      <c r="C28" s="6"/>
+      <c r="D28" s="6"/>
+      <c r="E28" s="6"/>
+      <c r="F28" s="6"/>
+      <c r="G28" s="5"/>
+      <c r="H28" s="5"/>
+      <c r="I28" s="5"/>
+      <c r="J28" s="5"/>
+      <c r="K28" s="5"/>
+      <c r="L28" s="5"/>
+      <c r="M28" s="5"/>
+      <c r="N28" s="5"/>
+      <c r="O28" s="5"/>
+      <c r="P28" s="5"/>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="C29" s="4" t="s">
+      <c r="C29" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="D29" s="4"/>
-      <c r="E29" s="7" t="s">
+      <c r="D29" s="8"/>
+      <c r="E29" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="F29" s="7" t="s">
+      <c r="F29" s="3" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="30" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="6" t="s">
+      <c r="B30" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="C30" s="4" t="s">
+      <c r="C30" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="D30" s="4"/>
-      <c r="E30" s="8" t="s">
+      <c r="D30" s="8"/>
+      <c r="E30" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="F30" s="8" t="s">
+      <c r="F30" s="4" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B31" s="6"/>
+      <c r="B31" s="7"/>
       <c r="C31" s="1" t="s">
         <v>44</v>
       </c>
@@ -1234,7 +1120,7 @@
       </c>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B32" s="6"/>
+      <c r="B32" s="7"/>
       <c r="C32" s="1">
         <v>5</v>
       </c>
@@ -1249,7 +1135,7 @@
       </c>
     </row>
     <row r="33" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B33" s="6"/>
+      <c r="B33" s="7"/>
       <c r="C33" s="1">
         <v>10</v>
       </c>
@@ -1264,7 +1150,7 @@
       </c>
     </row>
     <row r="34" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B34" s="6"/>
+      <c r="B34" s="7"/>
       <c r="C34" s="1">
         <v>15</v>
       </c>
@@ -1279,23 +1165,23 @@
       </c>
     </row>
     <row r="35" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B35" s="6"/>
+      <c r="B35" s="7"/>
     </row>
     <row r="36" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B36" s="6"/>
-      <c r="C36" s="4" t="s">
+      <c r="B36" s="7"/>
+      <c r="C36" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="D36" s="4"/>
-      <c r="E36" s="8" t="s">
+      <c r="D36" s="8"/>
+      <c r="E36" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="F36" s="8" t="s">
+      <c r="F36" s="4" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="37" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B37" s="6"/>
+      <c r="B37" s="7"/>
       <c r="C37" s="1">
         <v>5</v>
       </c>
@@ -1310,7 +1196,7 @@
       </c>
     </row>
     <row r="38" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B38" s="6"/>
+      <c r="B38" s="7"/>
       <c r="C38" s="1">
         <v>10</v>
       </c>
@@ -1325,7 +1211,7 @@
       </c>
     </row>
     <row r="39" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B39" s="6"/>
+      <c r="B39" s="7"/>
       <c r="C39" s="1">
         <v>15</v>
       </c>
@@ -1340,23 +1226,23 @@
       </c>
     </row>
     <row r="40" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B40" s="6"/>
+      <c r="B40" s="7"/>
     </row>
     <row r="41" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B41" s="6"/>
-      <c r="C41" s="4" t="s">
+      <c r="B41" s="7"/>
+      <c r="C41" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="D41" s="4"/>
-      <c r="E41" s="8" t="s">
+      <c r="D41" s="8"/>
+      <c r="E41" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="F41" s="8" t="s">
+      <c r="F41" s="4" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="42" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B42" s="6"/>
+      <c r="B42" s="7"/>
       <c r="C42" s="1">
         <v>5</v>
       </c>
@@ -1368,7 +1254,7 @@
       </c>
     </row>
     <row r="43" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B43" s="6"/>
+      <c r="B43" s="7"/>
       <c r="C43" s="1">
         <v>10</v>
       </c>
@@ -1383,7 +1269,7 @@
       </c>
     </row>
     <row r="44" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B44" s="6"/>
+      <c r="B44" s="7"/>
       <c r="C44" s="1">
         <v>15</v>
       </c>
@@ -1396,15 +1282,15 @@
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="B8:G8"/>
+    <mergeCell ref="C15:F15"/>
+    <mergeCell ref="C3:F3"/>
+    <mergeCell ref="C29:D29"/>
     <mergeCell ref="A28:F28"/>
     <mergeCell ref="B30:B44"/>
     <mergeCell ref="C30:D30"/>
     <mergeCell ref="C36:D36"/>
     <mergeCell ref="C41:D41"/>
-    <mergeCell ref="B8:G8"/>
-    <mergeCell ref="C15:F15"/>
-    <mergeCell ref="C3:F3"/>
-    <mergeCell ref="C29:D29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
